--- a/CIDBankCDCalculator/Data/Testdata.xlsx
+++ b/CIDBankCDCalculator/Data/Testdata.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="3315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Initial Deposit Amount</t>
   </si>
@@ -34,21 +38,6 @@
     <t>Compunding</t>
   </si>
   <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Semi-Anually</t>
-  </si>
-  <si>
-    <t>Anually</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -58,10 +47,52 @@
     <t>Expected CD</t>
   </si>
   <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
+    <t>Compounded Monthly</t>
+  </si>
+  <si>
+    <t>Compounded Quarterly</t>
+  </si>
+  <si>
+    <t>Compounded Annually</t>
+  </si>
+  <si>
+    <t>Compounded Semi-Annually</t>
+  </si>
+  <si>
+    <t>Compounded Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compounded Daily </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -126,16 +157,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -419,322 +451,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>3200</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>365</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>A2*(1+C2/E2)^(E2*B2/12)</f>
+        <v>4107.476987174352</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3208.0098984772071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>6050</v>
+      </c>
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="0">A3*(1+C3/E3)^(E3*B3/12)</f>
+        <v>12390400</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6749.7934973251649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>14900</v>
+      </c>
+      <c r="B4" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>110476661.45484014</v>
+      </c>
+      <c r="H4" s="2">
+        <v>19341.702097494024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>15500</v>
+      </c>
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>383517747.55283445</v>
+      </c>
+      <c r="H5" s="2">
+        <v>26852.34474651613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>20400</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>154667277.61942297</v>
+      </c>
+      <c r="H6" s="2">
+        <v>48546.229646046922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>29000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>365</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.851678559236099E+70</v>
+      </c>
+      <c r="H7" s="2">
+        <v>78578.059299999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>31000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3466135254495552E+38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>498576.06900000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>38000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4076255220351626E+23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>502379.02947000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>44700</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9313600308445051E+18</v>
+      </c>
+      <c r="H10" s="2">
+        <v>945981.4632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>49300</v>
+      </c>
+      <c r="B11" s="4">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>365</v>
-      </c>
-      <c r="G4">
-        <f>B4*(1+D4/F4)^(F4*C4/12)</f>
-        <v>3208.0098984772071</v>
-      </c>
-      <c r="H4">
-        <v>3208.0098984772071</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>6050</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G13" si="0">B5*(1+D5/F5)^(F5*C5/12)</f>
-        <v>6749.7934973251649</v>
-      </c>
-      <c r="H5">
-        <v>6749.7934973251649</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>14900</v>
-      </c>
-      <c r="C6" s="2">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>19341.702097494024</v>
-      </c>
-      <c r="H6">
-        <v>19341.702097494024</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>15500</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>26852.34474651613</v>
-      </c>
-      <c r="H7">
-        <v>26852.34474651613</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>20400</v>
-      </c>
-      <c r="C8" s="2">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>48546.229646046922</v>
-      </c>
-      <c r="H8">
-        <v>48546.229646046922</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>29000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>365</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>148320.79700967509</v>
-      </c>
-      <c r="H9">
-        <v>78578.059299999994</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>31000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>303645.73466859577</v>
-      </c>
-      <c r="H10">
-        <v>498576.06900000002</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>38000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>488341.43197247345</v>
-      </c>
-      <c r="H11">
-        <v>502379.02947000001</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>44700</v>
-      </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>960593.36428658641</v>
-      </c>
-      <c r="H12">
-        <v>945981.4632</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>49300</v>
-      </c>
-      <c r="C13" s="2">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1326598.18470426</v>
-      </c>
-      <c r="H13">
+        <v>163445679408036.69</v>
+      </c>
+      <c r="H11" s="2">
         <v>1236474.1839999999</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
